--- a/Logseq/logseq添加外置颜色并生成键值.xlsx
+++ b/Logseq/logseq添加外置颜色并生成键值.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\z6mdnojc\Logseq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1FD138-28DE-46B8-B5B6-893B7517A649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3372A94-534D-4DBB-B459-14649B68DD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD523F71-DB8D-4105-93D7-1CEA0F8158FE}"/>
   </bookViews>
@@ -989,13 +989,13 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>&lt;a href="https://gitee.com/darkluna999/z6mdnojc/Logseq/logseq</t>
+      <t>&lt;a href="https://gitee.com/darkluna999/z6mdnojc/blob/master/Logseq/logseq</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF6688CC"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -1131,7 +1131,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF6688CC"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -1496,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1770D12D-2DAA-4488-A398-32366C62E2A8}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A1048541" workbookViewId="0">
+      <selection activeCell="A1048575" sqref="A1048575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1558,7 +1558,7 @@
     <row r="2" spans="1:3 16369:16384" ht="15" x14ac:dyDescent="0.2">
       <c r="C2" t="str">
         <f>XFD1048576&amp;XEO1&amp;A1048575</f>
-        <v>{{    if color == '#ff6666'}} &lt;h3&gt;⚔️悖论&lt;/h3&gt;&lt;blockquote&gt;&lt;p&gt;&lt;span style="background-color: {{color}}80"&gt;{{highlight}}&lt;/p&gt;&lt;p&gt;&amp;lt;p&amp;gt;📍引自：{{citation}}&amp;lt;/p&amp;gt;&lt;/p&gt;{{if comment}}&lt;p&gt;✒️批注：{{comment}}&lt;/p&gt;{{endif}}&lt;p&gt;🏷️标签: #悖论 #{{tags join=' #'}}&lt;/p&gt;&lt;/blockquote&gt;  {{elseif color == '#a28ae5'}} &lt;h3&gt;📝生词&lt;/h3&gt;&lt;blockquote&gt;&lt;p&gt;&lt;span style="background-color: {{color}}80"&gt;{{highlight}}&lt;/p&gt;&lt;p&gt;&amp;lt;p&amp;gt;📍引自：{{citation}}&amp;lt;/p&amp;gt;&lt;/p&gt;{{if comment}}&lt;p&gt;✒️批注：{{comment}}&lt;/p&gt;{{endif}}&lt;p&gt;🏷️标签: #生词 #{{tags join=' #'}}&lt;/p&gt;&lt;/blockquote&gt;  {{elseif color == '#2ea8e5'}} &lt;h3&gt;🔬方法&lt;/h3&gt;&lt;blockquote&gt;&lt;p&gt;&lt;span style="background-color: {{color}}80"&gt;{{highlight}}&lt;/p&gt;&lt;p&gt;&amp;lt;p&amp;gt;📍引自：{{citation}}&amp;lt;/p&amp;gt;&lt;/p&gt;{{if comment}}&lt;p&gt;✒️批注：{{comment}}&lt;/p&gt;{{endif}}&lt;p&gt;🏷️标签: #方法 #{{tags join=' #'}}&lt;/p&gt;&lt;/blockquote&gt;  {{elseif color == '#ffd400'}} &lt;h3&gt;📒背景&lt;/h3&gt;&lt;blockquote&gt;&lt;p&gt;&lt;span style="background-color: {{color}}80"&gt;{{highlight}}&lt;/p&gt;&lt;p&gt;&amp;lt;p&amp;gt;📍引自：{{citation}}&amp;lt;/p&amp;gt;&lt;/p&gt;{{if comment}}&lt;p&gt;✒️批注：{{comment}}&lt;/p&gt;{{endif}}&lt;p&gt;🏷️标签: #背景 #{{tags join=' #'}}&lt;/p&gt;&lt;/blockquote&gt;  {{elseif color == '#5fb236'}} &lt;h3&gt;🔭前景&lt;/h3&gt;&lt;blockquote&gt;&lt;p&gt;&lt;span style="background-color: {{color}}80"&gt;{{highlight}}&lt;/p&gt;&lt;p&gt;&amp;lt;p&amp;gt;📍引自：{{citation}}&amp;lt;/p&amp;gt;&lt;/p&gt;{{if comment}}&lt;p&gt;✒️批注：{{comment}}&lt;/p&gt;{{endif}}&lt;p&gt;🏷️标签: #前景 #{{tags join=' #'}}&lt;/p&gt;&lt;/blockquote&gt; {{else }} &lt;h3&gt;颜色 --&gt; {{color}} &lt;-- 暂未添加在识别列表&lt;/h3&gt;                                              &lt;blockquote&gt;&lt;p&gt;&lt;span style="background-color: {{color}}80"&gt;{{highlight}}&lt;/p&gt;&lt;p&gt;&gt;&amp;lt;p&amp;gt;📍引自：{{citation}}&amp;lt;/p&amp;gt;&lt;/p&gt;{{if comment}}&lt;p&gt;✒️批注：{{comment}}&lt;/p &gt;{{endif}}&lt;p&gt;🏷️标签:#未知颜色 #{{tags join=' #'}}&lt;/p&gt;&lt;/blockquote&gt; &lt;p&gt;请参照&lt;a href="https://gitee.com/darkluna999/z6mdnojc/Logseq/logseq添加外置颜色并生成键值.xlsx"&gt;gitee格式自行添加条目&lt;/a&gt;并进行替换&lt;/p&gt; &lt;HR&gt; {{endif}}</v>
+        <v>{{    if color == '#ff6666'}} &lt;h3&gt;⚔️悖论&lt;/h3&gt;&lt;blockquote&gt;&lt;p&gt;&lt;span style="background-color: {{color}}80"&gt;{{highlight}}&lt;/p&gt;&lt;p&gt;&amp;lt;p&amp;gt;📍引自：{{citation}}&amp;lt;/p&amp;gt;&lt;/p&gt;{{if comment}}&lt;p&gt;✒️批注：{{comment}}&lt;/p&gt;{{endif}}&lt;p&gt;🏷️标签: #悖论 #{{tags join=' #'}}&lt;/p&gt;&lt;/blockquote&gt;  {{elseif color == '#a28ae5'}} &lt;h3&gt;📝生词&lt;/h3&gt;&lt;blockquote&gt;&lt;p&gt;&lt;span style="background-color: {{color}}80"&gt;{{highlight}}&lt;/p&gt;&lt;p&gt;&amp;lt;p&amp;gt;📍引自：{{citation}}&amp;lt;/p&amp;gt;&lt;/p&gt;{{if comment}}&lt;p&gt;✒️批注：{{comment}}&lt;/p&gt;{{endif}}&lt;p&gt;🏷️标签: #生词 #{{tags join=' #'}}&lt;/p&gt;&lt;/blockquote&gt;  {{elseif color == '#2ea8e5'}} &lt;h3&gt;🔬方法&lt;/h3&gt;&lt;blockquote&gt;&lt;p&gt;&lt;span style="background-color: {{color}}80"&gt;{{highlight}}&lt;/p&gt;&lt;p&gt;&amp;lt;p&amp;gt;📍引自：{{citation}}&amp;lt;/p&amp;gt;&lt;/p&gt;{{if comment}}&lt;p&gt;✒️批注：{{comment}}&lt;/p&gt;{{endif}}&lt;p&gt;🏷️标签: #方法 #{{tags join=' #'}}&lt;/p&gt;&lt;/blockquote&gt;  {{elseif color == '#ffd400'}} &lt;h3&gt;📒背景&lt;/h3&gt;&lt;blockquote&gt;&lt;p&gt;&lt;span style="background-color: {{color}}80"&gt;{{highlight}}&lt;/p&gt;&lt;p&gt;&amp;lt;p&amp;gt;📍引自：{{citation}}&amp;lt;/p&amp;gt;&lt;/p&gt;{{if comment}}&lt;p&gt;✒️批注：{{comment}}&lt;/p&gt;{{endif}}&lt;p&gt;🏷️标签: #背景 #{{tags join=' #'}}&lt;/p&gt;&lt;/blockquote&gt;  {{elseif color == '#5fb236'}} &lt;h3&gt;🔭前景&lt;/h3&gt;&lt;blockquote&gt;&lt;p&gt;&lt;span style="background-color: {{color}}80"&gt;{{highlight}}&lt;/p&gt;&lt;p&gt;&amp;lt;p&amp;gt;📍引自：{{citation}}&amp;lt;/p&amp;gt;&lt;/p&gt;{{if comment}}&lt;p&gt;✒️批注：{{comment}}&lt;/p&gt;{{endif}}&lt;p&gt;🏷️标签: #前景 #{{tags join=' #'}}&lt;/p&gt;&lt;/blockquote&gt; {{else }} &lt;h3&gt;颜色 --&gt; {{color}} &lt;-- 暂未添加在识别列表&lt;/h3&gt;                                              &lt;blockquote&gt;&lt;p&gt;&lt;span style="background-color: {{color}}80"&gt;{{highlight}}&lt;/p&gt;&lt;p&gt;&gt;&amp;lt;p&amp;gt;📍引自：{{citation}}&amp;lt;/p&amp;gt;&lt;/p&gt;{{if comment}}&lt;p&gt;✒️批注：{{comment}}&lt;/p &gt;{{endif}}&lt;p&gt;🏷️标签:#未知颜色 #{{tags join=' #'}}&lt;/p&gt;&lt;/blockquote&gt; &lt;p&gt;请参照&lt;a href="https://gitee.com/darkluna999/z6mdnojc/blob/master/Logseq/logseq添加外置颜色并生成键值.xlsx"&gt;gitee格式自行添加条目&lt;/a&gt;并进行替换&lt;/p&gt; &lt;HR&gt; {{endif}}</v>
       </c>
       <c r="XEP2" s="3" t="str">
         <f t="shared" ref="XEP2:XEP65" si="1">IF(ISBLANK(A3),"","{{elseif color == '")</f>
